--- a/biology/Médecine/Bien-être_fœtal/Bien-être_fœtal.xlsx
+++ b/biology/Médecine/Bien-être_fœtal/Bien-être_fœtal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bien-%C3%AAtre_f%C5%93tal</t>
+          <t>Bien-être_fœtal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bien-être fœtal est une notion relativement récente utilisée pour la surveillance fœtale dans le cas de grossesse pathologique ou dans les grossesses à haut risque.
 Le bien-être fœtal est apprécié par un certain nombre d'exploration. Le but de l'évaluation est de diminuer la morbidité néonatale et la mortalité néonatale. Bien que la liste ci-dessous soit impressionnante, toutes ces techniques ne doivent pas être mises systématiquement en œuvre. Une technique ne doit pas être évaluée seule mais doit être intégrée aux autres techniques.  
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bien-%C3%AAtre_f%C5%93tal</t>
+          <t>Bien-être_fœtal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelles sont les grossesses qui doivent bénéficier de cette évaluation ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Retard de croissance intra-utérin
 Diminution des mouvements actifs
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bien-%C3%AAtre_f%C5%93tal</t>
+          <t>Bien-être_fœtal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Quelles sont les bénéfices attendus de l'évaluation du bien être fœtal ?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diminution des acidoses métaboliques fœtales
 Diminution des mort-nés
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bien-%C3%AAtre_f%C5%93tal</t>
+          <t>Bien-être_fœtal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,36 +604,270 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Compte des mouvements du fœtus
-Technique de Cardiff
-À partir de 9 h du matin, en position assise ou allongée, la patiente se concentre sur les mouvements de son fœtus. Elle calcule combien de temps il faut pour compter 10 mouvements.
+          <t>Compte des mouvements du fœtus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Technique de Cardiff</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 9 h du matin, en position assise ou allongée, la patiente se concentre sur les mouvements de son fœtus. Elle calcule combien de temps il faut pour compter 10 mouvements.
 Elle présente ensuite les résultats lors d’une visite prénatale. Si le fœtus n’a pas bougé 10 fois avant 21 h, elle doit se présenter tout de suite pour un examen.
-Technique Sadovsky
-La patiente s’étend pendant une heure après le repas, si possible, et elle se concentre sur les mouvements de son fœtus. Si, après une heure, elle n’a pas compté quatre mouvements, elle doit continuer pendant une autre heure. Si, après deux heures, elle n’a pas encore compté quatre mouvements, elle doit se présenter pour un examen.
-Étude de la  réactivité du rythme cardiaque fœtale
-Test à l'ocytocine
-Évaluation échographique du comportement fœtal et du liquide amniotique
-Évaluation vélocimétrique (doppler) du fœtus
-Doppler du cordon ombilical
-Technique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bien-être_fœtal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bien-%C3%AAtre_f%C5%93tal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technique d'évaluation du bien-être fœtal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Compte des mouvements du fœtus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Technique Sadovsky</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La patiente s’étend pendant une heure après le repas, si possible, et elle se concentre sur les mouvements de son fœtus. Si, après une heure, elle n’a pas compté quatre mouvements, elle doit continuer pendant une autre heure. Si, après deux heures, elle n’a pas encore compté quatre mouvements, elle doit se présenter pour un examen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bien-être_fœtal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bien-%C3%AAtre_f%C5%93tal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Technique d'évaluation du bien-être fœtal</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Évaluation vélocimétrique (doppler) du fœtus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Doppler du cordon ombilical</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Technique
 Résultat
 Plus précoce et plus spécifique que la biométrie fœtale dans la survenue d'un R.C.I.U
 Combiné avec la biométrie améliore le diagnostic de R.C.I.U
 Permet de diagnostiquer les petits bébés constitutionnels des vrais R.C.I.U
 Grande valeur d'une disparition d'un flux en diastole ou même de l'inversion du flux en diastole (reverse flow)
 Impose hospitalisation
-Les altérations du R.C.F apparaissent 7 à 14 jours après les anomalies du doppler ombilical
-Doppler des artères cérébrales fœtales
-Technique
-Résultat
-Doppler cardiaque
-Technique
-Résultat
-Doppler de l'isthme aortique
-Technique
-Résultat
-Doppler du canal d'Arantius
-Technique
+Les altérations du R.C.F apparaissent 7 à 14 jours après les anomalies du doppler ombilical</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bien-être_fœtal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bien-%C3%AAtre_f%C5%93tal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Technique d'évaluation du bien-être fœtal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Évaluation vélocimétrique (doppler) du fœtus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Doppler des artères cérébrales fœtales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Technique
+Résultat</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bien-être_fœtal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bien-%C3%AAtre_f%C5%93tal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Technique d'évaluation du bien-être fœtal</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Évaluation vélocimétrique (doppler) du fœtus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Doppler cardiaque</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Technique
+Résultat</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bien-être_fœtal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bien-%C3%AAtre_f%C5%93tal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Technique d'évaluation du bien-être fœtal</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Évaluation vélocimétrique (doppler) du fœtus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Doppler de l'isthme aortique</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Technique
+Résultat</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bien-être_fœtal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bien-%C3%AAtre_f%C5%93tal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Technique d'évaluation du bien-être fœtal</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Évaluation vélocimétrique (doppler) du fœtus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Doppler du canal d'Arantius</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Technique
 Résultat</t>
         </is>
       </c>
